--- a/cmake-build-debug/Graphed Data/selectionSortFile.xlsx
+++ b/cmake-build-debug/Graphed Data/selectionSortFile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amccm\CLionProjects\Project_4\cmake-build-debug\Graphed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816F302-AC3B-492D-BB19-7A85BB8D136A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DC7085-0954-4D91-A848-6F050D74F7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2205" windowWidth="21540" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="selectionSortFile" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,8 +648,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13546981627296589"/>
-          <c:y val="0.17171296296296298"/>
+          <c:x val="0.14102537182852143"/>
+          <c:y val="0.16708333333333336"/>
           <c:w val="0.83953018372703414"/>
           <c:h val="0.61498432487605714"/>
         </c:manualLayout>
@@ -764,7 +764,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62DD-434B-A83C-8D905CE06B45}"/>
+              <c16:uniqueId val="{00000000-8C05-4C35-9E00-E4C46F029E9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -875,7 +875,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62DD-434B-A83C-8D905CE06B45}"/>
+              <c16:uniqueId val="{00000001-8C05-4C35-9E00-E4C46F029E9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -888,11 +888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="496676544"/>
-        <c:axId val="496676960"/>
+        <c:axId val="540181888"/>
+        <c:axId val="540185632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="496676544"/>
+        <c:axId val="540181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,12 +918,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Vector Size</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -993,7 +990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496676960"/>
+        <c:crossAx val="540185632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496676960"/>
+        <c:axId val="540185632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496676544"/>
+        <c:crossAx val="540181888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1747,23 +1744,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA9B2D1-0B31-4249-8700-7F5C9143858C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2239714-32EC-431D-92B5-B5160832450A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,11 +2077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
